--- a/Business - Technology Services/REAX.xlsx
+++ b/Business - Technology Services/REAX.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\Business - Technology Services\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB5A8564-2EA2-4757-B9F8-000FFFBE1E10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5778DBC7-E543-4B00-961E-4896D65D1B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -21,16 +21,16 @@
     <sheet name="DoR" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Model!$B$19</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Model!$B$20</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Model!$L$19:$AA$19</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Model!$L$20:$AA$20</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Model!$L$2:$AA$2</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Model!$B$3</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Model!$B$4</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Model!$L$2:$AA$2</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Model!$L$3:$AA$3</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Model!$L$4:$AA$4</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Model!$B$3</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Model!$B$4</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Model!$L$2:$AA$2</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Model!$L$3:$AA$3</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Model!$L$4:$AA$4</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Model!$B$19</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Model!$B$20</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Model!$L$19:$AA$19</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Model!$L$20:$AA$20</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Model!$L$2:$AA$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -318,7 +318,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="156">
   <si>
     <t>Price</t>
   </si>
@@ -783,6 +783,9 @@
   </si>
   <si>
     <t>Foreign currency</t>
+  </si>
+  <si>
+    <t>Q125</t>
   </si>
 </sst>
 </file>
@@ -1531,7 +1534,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1692,6 +1695,9 @@
     <xf numFmtId="2" fontId="12" fillId="11" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1749,10 +1755,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -2036,6 +2048,9 @@
                 <c:pt idx="9">
                   <c:v>185.33199999999999</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>214.64</c:v>
+                </c:pt>
                 <c:pt idx="12">
                   <c:v>200.74299999999999</c:v>
                 </c:pt>
@@ -2181,7 +2196,7 @@
                   <c:v>0.8387434441974404</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>0.7354081252329483</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -2813,10 +2828,10 @@
                   <c:v>0.80523161391045606</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1</c:v>
+                  <c:v>0.75576573151584969</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.30578512396694224</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3327,7 +3342,7 @@
                   <c:v>-2.3147014975189745E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>-2.2423212536186787E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -3339,7 +3354,7 @@
                   <c:v>-4.1682976630026836E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>-1.3164317530050689E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -3486,7 +3501,7 @@
                   <c:v>-0.81062244652727622</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>-0.36089854356949325</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -4623,7 +4638,7 @@
                   <c:v>5.5392484838020423E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>5.3936824450242268E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -4635,7 +4650,7 @@
                   <c:v>4.6625662454735921E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>4.3762483623633511E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -4839,7 +4854,7 @@
                   <c:v>8.5198454665141483E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>8.9964591874767061E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -4851,7 +4866,7 @@
                   <c:v>7.6530761962333247E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>4.0970447370116618E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -5055,7 +5070,7 @@
                   <c:v>5.2090302807933871E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>4.3020872158032054E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -6692,18 +6707,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.4</cx:f>
+        <cx:f dir="row">_xlchart.v1.9</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.3</cx:f>
+        <cx:f dir="row">_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.4</cx:f>
+        <cx:f dir="row">_xlchart.v1.9</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.2</cx:f>
+        <cx:f dir="row">_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -6747,7 +6762,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>EPS exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6767,7 +6782,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.5</cx:f>
               <cx:v>EPS</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6798,18 +6813,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.7</cx:f>
+        <cx:f dir="row">_xlchart.v1.2</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.9</cx:f>
+        <cx:f dir="row">_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.7</cx:f>
+        <cx:f dir="row">_xlchart.v1.2</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.8</cx:f>
+        <cx:f dir="row">_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -6853,7 +6868,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>Rev. Exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6873,7 +6888,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.5</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>Revenue</cx:v>
             </cx:txData>
           </cx:tx>
@@ -13189,8 +13204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:N54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13243,7 +13258,7 @@
         <v>40</v>
       </c>
       <c r="C3" s="20">
-        <v>45560</v>
+        <v>45664</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="28"/>
@@ -13255,7 +13270,7 @@
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
       <c r="C4" s="21">
-        <v>0.69166666666666665</v>
+        <v>0.18333333333333332</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="28"/>
@@ -13279,7 +13294,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="13">
-        <v>5.62</v>
+        <v>4.5</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="28"/>
@@ -13292,7 +13307,10 @@
       <c r="B7" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="15"/>
+      <c r="C7" s="15">
+        <f>Model!Z18</f>
+        <v>196.66800000000001</v>
+      </c>
       <c r="E7" s="5"/>
       <c r="F7" s="28"/>
       <c r="I7" s="10"/>
@@ -13306,7 +13324,7 @@
       </c>
       <c r="C8" s="15">
         <f>C6*C7</f>
-        <v>0</v>
+        <v>885.00600000000009</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="28"/>
@@ -13320,8 +13338,8 @@
         <v>3</v>
       </c>
       <c r="C9" s="15">
-        <f>Model!F22</f>
-        <v>-5.4220496861869985E-2</v>
+        <f>Model!Z33+Model!Z36</f>
+        <v>31.977999999999998</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="28"/>
@@ -13335,8 +13353,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="15">
-        <f>Model!F33+Model!F37</f>
-        <v>12.393000000000001</v>
+        <v>0</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="28"/>
@@ -13351,7 +13368,7 @@
       </c>
       <c r="C11" s="15">
         <f>C9-C10</f>
-        <v>-12.44722049686187</v>
+        <v>31.977999999999998</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="28"/>
@@ -13366,7 +13383,7 @@
       </c>
       <c r="C12" s="15">
         <f>C8-C9+C10</f>
-        <v>12.44722049686187</v>
+        <v>853.02800000000013</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="28"/>
@@ -13378,9 +13395,9 @@
       <c r="B13" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="36" t="e">
-        <f>C6/Model!#REF!</f>
-        <v>#REF!</v>
+      <c r="C13" s="36">
+        <f>C6/Model!G19</f>
+        <v>-29.47062391999707</v>
       </c>
       <c r="E13" s="5"/>
       <c r="J13" s="13"/>
@@ -13391,10 +13408,7 @@
       <c r="B14" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="36">
-        <f>C6/Model!G10</f>
-        <v>-0.2160707420222992</v>
-      </c>
+      <c r="C14" s="36"/>
       <c r="E14" s="22"/>
       <c r="F14" s="29"/>
       <c r="G14" s="29"/>
@@ -13409,34 +13423,25 @@
       <c r="B15" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="36" t="e">
-        <f>C6/Model!H10</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="C15" s="36"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="6" t="e">
-        <f>Model!G10/Model!#REF!-1</f>
-        <v>#REF!</v>
-      </c>
+      <c r="C16" s="6"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="6">
-        <f>Model!H10/Model!G10-1</f>
-        <v>-1</v>
-      </c>
+      <c r="C17" s="6"/>
       <c r="E17" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="L17" s="130"/>
-      <c r="M17" s="131"/>
-      <c r="N17" s="132"/>
+      <c r="L17" s="133"/>
+      <c r="M17" s="134"/>
+      <c r="N17" s="135"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
@@ -13444,11 +13449,11 @@
       </c>
       <c r="C18" s="50" t="e">
         <f>C14/(C16*100)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L18" s="133"/>
-      <c r="M18" s="134"/>
-      <c r="N18" s="135"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L18" s="136"/>
+      <c r="M18" s="137"/>
+      <c r="N18" s="138"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
@@ -13458,45 +13463,42 @@
         <f>C15/(C17*100)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L19" s="133"/>
-      <c r="M19" s="134"/>
-      <c r="N19" s="135"/>
+      <c r="L19" s="136"/>
+      <c r="M19" s="137"/>
+      <c r="N19" s="138"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="6" t="e">
-        <f>Model!#REF!/Model!#REF!-1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L20" s="133"/>
-      <c r="M20" s="134"/>
-      <c r="N20" s="135"/>
+      <c r="C20" s="6">
+        <f>Model!H23</f>
+        <v>0.75576573151584969</v>
+      </c>
+      <c r="L20" s="136"/>
+      <c r="M20" s="137"/>
+      <c r="N20" s="138"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="6" t="e">
-        <f>Model!#REF!/Model!#REF!-1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L21" s="133"/>
-      <c r="M21" s="134"/>
-      <c r="N21" s="135"/>
+      <c r="C21" s="6">
+        <f>Model!I23</f>
+        <v>0.30578512396694224</v>
+      </c>
+      <c r="L21" s="136"/>
+      <c r="M21" s="137"/>
+      <c r="N21" s="138"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C22" s="15" t="e">
-        <f>Model!F6+Model!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L22" s="133"/>
-      <c r="M22" s="134"/>
-      <c r="N22" s="135"/>
+      <c r="C22" s="15"/>
+      <c r="L22" s="136"/>
+      <c r="M22" s="137"/>
+      <c r="N22" s="138"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
@@ -13506,9 +13508,9 @@
         <f>Model!F6</f>
         <v>24.155000000000001</v>
       </c>
-      <c r="L23" s="133"/>
-      <c r="M23" s="134"/>
-      <c r="N23" s="135"/>
+      <c r="L23" s="136"/>
+      <c r="M23" s="137"/>
+      <c r="N23" s="138"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
@@ -13518,9 +13520,9 @@
         <f>Model!F11</f>
         <v>0.72899999999999998</v>
       </c>
-      <c r="L24" s="133"/>
-      <c r="M24" s="134"/>
-      <c r="N24" s="135"/>
+      <c r="L24" s="136"/>
+      <c r="M24" s="137"/>
+      <c r="N24" s="138"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
@@ -13530,9 +13532,9 @@
         <f>Model!F12</f>
         <v>-1.3180000000000001</v>
       </c>
-      <c r="L25" s="133"/>
-      <c r="M25" s="134"/>
-      <c r="N25" s="135"/>
+      <c r="L25" s="136"/>
+      <c r="M25" s="137"/>
+      <c r="N25" s="138"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
@@ -13540,11 +13542,11 @@
       </c>
       <c r="C26" s="36">
         <f>C12/C23</f>
-        <v>0.51530616836521925</v>
-      </c>
-      <c r="L26" s="133"/>
-      <c r="M26" s="134"/>
-      <c r="N26" s="135"/>
+        <v>35.314758849099569</v>
+      </c>
+      <c r="L26" s="136"/>
+      <c r="M26" s="137"/>
+      <c r="N26" s="138"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
@@ -13557,9 +13559,9 @@
       <c r="E27" t="s">
         <v>72</v>
       </c>
-      <c r="L27" s="133"/>
-      <c r="M27" s="134"/>
-      <c r="N27" s="135"/>
+      <c r="L27" s="136"/>
+      <c r="M27" s="137"/>
+      <c r="N27" s="138"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
@@ -13569,9 +13571,9 @@
         <f>C22/-Model!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="L28" s="136"/>
-      <c r="M28" s="137"/>
-      <c r="N28" s="138"/>
+      <c r="L28" s="139"/>
+      <c r="M28" s="140"/>
+      <c r="N28" s="141"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
@@ -13604,9 +13606,9 @@
       <c r="B32" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C32" s="36" t="e">
+      <c r="C32" s="36">
         <f>(Model!Q32-Model!Q42)/Main!C7</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
@@ -13745,13 +13747,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7345E9-1C5F-45F5-BD7C-66FA029FFFF4}">
-  <dimension ref="A1:AA74"/>
+  <dimension ref="A1:AB74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="R3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="U8" sqref="U8"/>
+      <selection pane="bottomRight" activeCell="Z33" sqref="Z33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13759,15 +13761,16 @@
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" style="13"/>
-    <col min="25" max="25" width="11.42578125" style="13"/>
+    <col min="25" max="25" width="11.42578125" style="152"/>
+    <col min="26" max="26" width="11.42578125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>33</v>
       </c>
@@ -13828,17 +13831,20 @@
       <c r="X2" t="s">
         <v>60</v>
       </c>
-      <c r="Y2" s="13" t="s">
+      <c r="Y2" s="152" t="s">
         <v>64</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="Z2" s="13" t="s">
         <v>137</v>
       </c>
       <c r="AA2" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
@@ -13867,18 +13873,22 @@
       <c r="U3" s="11">
         <v>185.33199999999999</v>
       </c>
-      <c r="V3" s="11"/>
+      <c r="V3" s="11">
+        <v>214.64</v>
+      </c>
       <c r="W3" s="11"/>
       <c r="X3" s="11">
         <v>200.74299999999999</v>
       </c>
-      <c r="Y3" s="14">
+      <c r="Y3" s="153">
         <v>340.77800000000002</v>
       </c>
-      <c r="Z3" s="11"/>
+      <c r="Z3" s="14">
+        <v>372.488</v>
+      </c>
       <c r="AA3" s="11"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
         <v>62</v>
       </c>
@@ -13887,8 +13897,12 @@
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
       <c r="G4" s="15"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
+      <c r="H4" s="42">
+        <v>1210</v>
+      </c>
+      <c r="I4" s="42">
+        <v>1580</v>
+      </c>
       <c r="L4" s="40"/>
       <c r="M4" s="40"/>
       <c r="N4" s="40"/>
@@ -13902,11 +13916,16 @@
       <c r="V4" s="40"/>
       <c r="W4" s="40"/>
       <c r="X4" s="40"/>
-      <c r="Y4" s="128"/>
-      <c r="Z4" s="40"/>
-      <c r="AA4" s="40"/>
-    </row>
-    <row r="5" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y4" s="154"/>
+      <c r="Z4" s="128"/>
+      <c r="AA4" s="40">
+        <v>299.38</v>
+      </c>
+      <c r="AB4">
+        <v>300.81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>148</v>
       </c>
@@ -13935,18 +13954,22 @@
       <c r="U5" s="11">
         <v>167.57300000000001</v>
       </c>
-      <c r="V5" s="11"/>
+      <c r="V5" s="11">
+        <v>195.86500000000001</v>
+      </c>
       <c r="W5" s="11"/>
       <c r="X5" s="11">
         <v>179.98400000000001</v>
       </c>
-      <c r="Y5" s="14">
+      <c r="Y5" s="153">
         <v>308.91000000000003</v>
       </c>
-      <c r="Z5" s="11"/>
+      <c r="Z5" s="14">
+        <v>340.35899999999998</v>
+      </c>
       <c r="AA5" s="11"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>135</v>
       </c>
@@ -13975,18 +13998,22 @@
       <c r="U6" s="10">
         <v>9.6539999999999999</v>
       </c>
-      <c r="V6" s="10"/>
+      <c r="V6" s="10">
+        <v>9.234</v>
+      </c>
       <c r="W6" s="10"/>
       <c r="X6" s="10">
         <v>12.135999999999999</v>
       </c>
-      <c r="Y6" s="15">
+      <c r="Y6" s="155">
         <v>14.015000000000001</v>
       </c>
-      <c r="Z6" s="10"/>
+      <c r="Z6" s="15">
+        <v>16.300999999999998</v>
+      </c>
       <c r="AA6" s="10"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>149</v>
       </c>
@@ -14015,18 +14042,22 @@
       <c r="U7" s="10">
         <v>10.266</v>
       </c>
-      <c r="V7" s="10"/>
+      <c r="V7" s="10">
+        <v>11.577</v>
+      </c>
       <c r="W7" s="10"/>
       <c r="X7" s="10">
         <v>12.629</v>
       </c>
-      <c r="Y7" s="15">
+      <c r="Y7" s="155">
         <v>15.888999999999999</v>
       </c>
-      <c r="Z7" s="10"/>
+      <c r="Z7" s="15">
+        <v>15.260999999999999</v>
+      </c>
       <c r="AA7" s="10"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>70</v>
       </c>
@@ -14055,18 +14086,22 @@
       <c r="U8" s="10">
         <v>1.579</v>
       </c>
-      <c r="V8" s="10"/>
+      <c r="V8" s="10">
+        <v>1.931</v>
+      </c>
       <c r="W8" s="10"/>
       <c r="X8" s="10">
         <v>2.4620000000000002</v>
       </c>
-      <c r="Y8" s="15">
+      <c r="Y8" s="155">
         <v>2.6080000000000001</v>
       </c>
-      <c r="Z8" s="10"/>
+      <c r="Z8" s="15">
+        <v>3.0449999999999999</v>
+      </c>
       <c r="AA8" s="10"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>150</v>
       </c>
@@ -14092,110 +14127,110 @@
       <c r="X9" s="10">
         <v>9.25</v>
       </c>
-      <c r="Y9" s="15"/>
-      <c r="Z9" s="10"/>
+      <c r="Y9" s="155"/>
+      <c r="Z9" s="15"/>
       <c r="AA9" s="10"/>
     </row>
-    <row r="10" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="11">
-        <f>C3-SUM(C5:C9)</f>
+        <f t="shared" ref="C10:I10" si="0">C3-SUM(C5:C9)</f>
         <v>0</v>
       </c>
       <c r="D10" s="11">
-        <f>D3-SUM(D5:D9)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E10" s="11">
-        <f>E3-SUM(E5:E9)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F10" s="11">
-        <f>F3-SUM(F5:F9)</f>
+        <f t="shared" si="0"/>
         <v>-19.746000000000038</v>
       </c>
       <c r="G10" s="14">
-        <f>G3-SUM(G5:G9)</f>
+        <f t="shared" si="0"/>
         <v>-26.009999999999991</v>
       </c>
       <c r="H10" s="11">
-        <f>H3-SUM(H5:H9)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I10" s="11">
-        <f>I3-SUM(I5:I9)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
       <c r="L10" s="11">
-        <f>L3-SUM(L5:L9)</f>
+        <f t="shared" ref="L10:AA10" si="1">L3-SUM(L5:L9)</f>
         <v>0</v>
       </c>
       <c r="M10" s="11">
-        <f>M3-SUM(M5:M9)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N10" s="11">
-        <f>N3-SUM(N5:N9)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O10" s="11">
-        <f>O3-SUM(O5:O9)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P10" s="11">
-        <f>P3-SUM(P5:P9)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q10" s="11">
-        <f>Q3-SUM(Q5:Q9)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R10" s="11">
-        <f>R3-SUM(R5:R9)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S10" s="11">
-        <f>S3-SUM(S5:S9)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T10" s="11">
-        <f>T3-SUM(T5:T9)</f>
+        <f t="shared" si="1"/>
         <v>-7.0380000000000109</v>
       </c>
       <c r="U10" s="11">
-        <f>U3-SUM(U5:U9)</f>
+        <f t="shared" si="1"/>
         <v>-3.7400000000000091</v>
       </c>
       <c r="V10" s="11">
-        <f>V3-SUM(V5:V9)</f>
+        <f t="shared" si="1"/>
+        <v>-3.9670000000000414</v>
+      </c>
+      <c r="W10" s="11">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W10" s="11">
-        <f>W3-SUM(W5:W9)</f>
+      <c r="X10" s="11">
+        <f t="shared" si="1"/>
+        <v>-15.717999999999989</v>
+      </c>
+      <c r="Y10" s="153">
+        <f t="shared" si="1"/>
+        <v>-0.64400000000000546</v>
+      </c>
+      <c r="Z10" s="14">
+        <f t="shared" si="1"/>
+        <v>-2.4780000000000086</v>
+      </c>
+      <c r="AA10" s="11">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X10" s="11">
-        <f>X3-SUM(X5:X9)</f>
-        <v>-15.717999999999989</v>
-      </c>
-      <c r="Y10" s="14">
-        <f>Y3-SUM(Y5:Y9)</f>
-        <v>-0.64400000000000546</v>
-      </c>
-      <c r="Z10" s="11">
-        <f>Z3-SUM(Z5:Z9)</f>
-        <v>0</v>
-      </c>
-      <c r="AA10" s="11">
-        <f>AA3-SUM(AA5:AA9)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>151</v>
       </c>
@@ -14224,18 +14259,22 @@
       <c r="U11" s="10">
         <v>0.04</v>
       </c>
-      <c r="V11" s="10"/>
+      <c r="V11" s="10">
+        <v>3.7999999999999999E-2</v>
+      </c>
       <c r="W11" s="10"/>
       <c r="X11" s="10">
         <v>0.17299999999999999</v>
       </c>
-      <c r="Y11" s="15">
+      <c r="Y11" s="155">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="Z11" s="10"/>
+      <c r="Z11" s="15">
+        <v>0.151</v>
+      </c>
       <c r="AA11" s="10"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>152</v>
       </c>
@@ -14265,115 +14304,119 @@
       <c r="U12" s="10">
         <v>-0.27200000000000002</v>
       </c>
-      <c r="V12" s="10"/>
+      <c r="V12" s="10">
+        <v>-0.01</v>
+      </c>
       <c r="W12" s="10"/>
       <c r="X12" s="10">
         <v>-0.55200000000000005</v>
       </c>
-      <c r="Y12" s="15">
+      <c r="Y12" s="155">
         <v>-0.52300000000000002</v>
       </c>
-      <c r="Z12" s="10"/>
+      <c r="Z12" s="15">
+        <v>-0.214</v>
+      </c>
       <c r="AA12" s="10"/>
     </row>
-    <row r="13" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>136</v>
       </c>
       <c r="C13" s="11">
-        <f>C10+SUM(C11:C12)</f>
+        <f t="shared" ref="C13:I13" si="2">C10+SUM(C11:C12)</f>
         <v>0</v>
       </c>
       <c r="D13" s="11">
-        <f>D10+SUM(D11:D12)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E13" s="11">
-        <f>E10+SUM(E11:E12)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F13" s="11">
-        <f>F10+SUM(F11:F12)</f>
+        <f t="shared" si="2"/>
         <v>-20.335000000000036</v>
       </c>
       <c r="G13" s="14">
-        <f>G10+SUM(G11:G12)</f>
+        <f t="shared" si="2"/>
         <v>-27.21599999999999</v>
       </c>
       <c r="H13" s="11">
-        <f>H10+SUM(H11:H12)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I13" s="11">
-        <f>I10+SUM(I11:I12)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L13" s="11">
-        <f>L10+SUM(L11:L12)</f>
+        <f t="shared" ref="L13:AA13" si="3">L10+SUM(L11:L12)</f>
         <v>0</v>
       </c>
       <c r="M13" s="11">
-        <f>M10+SUM(M11:M12)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N13" s="11">
-        <f>N10+SUM(N11:N12)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O13" s="11">
-        <f>O10+SUM(O11:O12)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P13" s="11">
-        <f>P10+SUM(P11:P12)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q13" s="11">
-        <f>Q10+SUM(Q11:Q12)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R13" s="11">
-        <f>R10+SUM(R11:R12)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S13" s="11">
-        <f>S10+SUM(S11:S12)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T13" s="11">
-        <f>T10+SUM(T11:T12)</f>
+        <f t="shared" si="3"/>
         <v>-7.315000000000011</v>
       </c>
       <c r="U13" s="11">
-        <f>U10+SUM(U11:U12)</f>
+        <f t="shared" si="3"/>
         <v>-3.9720000000000093</v>
       </c>
       <c r="V13" s="11">
-        <f>V10+SUM(V11:V12)</f>
+        <f t="shared" si="3"/>
+        <v>-3.9390000000000414</v>
+      </c>
+      <c r="W13" s="11">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="W13" s="11">
-        <f>W10+SUM(W11:W12)</f>
+      <c r="X13" s="11">
+        <f t="shared" si="3"/>
+        <v>-16.096999999999991</v>
+      </c>
+      <c r="Y13" s="153">
+        <f t="shared" si="3"/>
+        <v>-1.1100000000000054</v>
+      </c>
+      <c r="Z13" s="14">
+        <f t="shared" si="3"/>
+        <v>-2.5410000000000088</v>
+      </c>
+      <c r="AA13" s="11">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X13" s="11">
-        <f>X10+SUM(X11:X12)</f>
-        <v>-16.096999999999991</v>
-      </c>
-      <c r="Y13" s="14">
-        <f>Y10+SUM(Y11:Y12)</f>
-        <v>-1.1100000000000054</v>
-      </c>
-      <c r="Z13" s="11">
-        <f>Z10+SUM(Z11:Z12)</f>
-        <v>0</v>
-      </c>
-      <c r="AA13" s="11">
-        <f>AA10+SUM(AA11:AA12)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>71</v>
       </c>
@@ -14402,16 +14445,20 @@
       <c r="U14" s="10">
         <v>0.14599999999999999</v>
       </c>
-      <c r="V14" s="10"/>
+      <c r="V14" s="10">
+        <v>8.5000000000000006E-2</v>
+      </c>
       <c r="W14" s="10"/>
       <c r="X14" s="10"/>
-      <c r="Y14" s="15">
+      <c r="Y14" s="155">
         <v>0.105</v>
       </c>
-      <c r="Z14" s="10"/>
+      <c r="Z14" s="15">
+        <v>4.4999999999999998E-2</v>
+      </c>
       <c r="AA14" s="10"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>153</v>
       </c>
@@ -14440,18 +14487,22 @@
       <c r="U15" s="10">
         <v>-4.2000000000000003E-2</v>
       </c>
-      <c r="V15" s="10"/>
+      <c r="V15" s="10">
+        <v>7.9000000000000001E-2</v>
+      </c>
       <c r="W15" s="10"/>
       <c r="X15" s="10">
         <v>-4.2999999999999997E-2</v>
       </c>
-      <c r="Y15" s="15">
+      <c r="Y15" s="155">
         <v>-5.0999999999999997E-2</v>
       </c>
-      <c r="Z15" s="10"/>
+      <c r="Z15" s="15">
+        <v>3.0000000000000001E-3</v>
+      </c>
       <c r="AA15" s="10"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>154</v>
       </c>
@@ -14480,83 +14531,85 @@
       <c r="U16" s="10">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="V16" s="10"/>
+      <c r="V16" s="10">
+        <v>-5.1999999999999998E-2</v>
+      </c>
       <c r="W16" s="10"/>
       <c r="X16" s="10">
         <v>-0.11899999999999999</v>
       </c>
-      <c r="Y16" s="15">
+      <c r="Y16" s="155">
         <v>-0.376</v>
       </c>
-      <c r="Z16" s="10"/>
+      <c r="Z16" s="15"/>
       <c r="AA16" s="10"/>
     </row>
-    <row r="17" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C17" s="11">
-        <f t="shared" ref="C17:I17" si="0">C13-SUM(C14:C16)</f>
+        <f t="shared" ref="C17:I17" si="4">C13-SUM(C14:C16)</f>
         <v>0</v>
       </c>
       <c r="D17" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E17" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F17" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-20.699000000000037</v>
       </c>
       <c r="G17" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-27.198999999999991</v>
       </c>
       <c r="H17" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I17" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L17" s="11">
-        <f t="shared" ref="L17:T17" si="1">L13-SUM(L14:L16)</f>
+        <f t="shared" ref="L17:T17" si="5">L13-SUM(L14:L16)</f>
         <v>0</v>
       </c>
       <c r="M17" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N17" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O17" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P17" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q17" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R17" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S17" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T17" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-7.1550000000000109</v>
       </c>
       <c r="U17" s="11">
@@ -14564,31 +14617,31 @@
         <v>-4.1610000000000094</v>
       </c>
       <c r="V17" s="11">
-        <f t="shared" ref="V17:AA17" si="2">V13-SUM(V14:V16)</f>
+        <f t="shared" ref="V17:AA17" si="6">V13-SUM(V14:V16)</f>
+        <v>-4.051000000000041</v>
+      </c>
+      <c r="W17" s="11">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W17" s="11">
-        <f t="shared" si="2"/>
+      <c r="X17" s="11">
+        <f t="shared" si="6"/>
+        <v>-15.93499999999999</v>
+      </c>
+      <c r="Y17" s="153">
+        <f t="shared" si="6"/>
+        <v>-0.78800000000000536</v>
+      </c>
+      <c r="Z17" s="14">
+        <f t="shared" si="6"/>
+        <v>-2.5890000000000088</v>
+      </c>
+      <c r="AA17" s="11">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="X17" s="11">
-        <f t="shared" si="2"/>
-        <v>-15.93499999999999</v>
-      </c>
-      <c r="Y17" s="14">
-        <f t="shared" si="2"/>
-        <v>-0.78800000000000536</v>
-      </c>
-      <c r="Z17" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AA17" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>1</v>
       </c>
@@ -14617,18 +14670,22 @@
       <c r="U18" s="10">
         <v>179.76400000000001</v>
       </c>
-      <c r="V18" s="10"/>
+      <c r="V18" s="10">
+        <v>180.661</v>
+      </c>
       <c r="W18" s="10"/>
       <c r="X18" s="10">
         <v>184.69200000000001</v>
       </c>
-      <c r="Y18" s="15">
+      <c r="Y18" s="155">
         <v>189.04599999999999</v>
       </c>
-      <c r="Z18" s="10"/>
+      <c r="Z18" s="15">
+        <v>196.66800000000001</v>
+      </c>
       <c r="AA18" s="10"/>
     </row>
-    <row r="19" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>21</v>
       </c>
@@ -14659,67 +14716,67 @@
         <v>#DIV/0!</v>
       </c>
       <c r="M19" s="2" t="e">
-        <f t="shared" ref="M19:V19" si="3">M17/M18</f>
+        <f t="shared" ref="M19:V19" si="7">M17/M18</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N19" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O19" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P19" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q19" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R19" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S19" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T19" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-4.0055086240196221E-2</v>
       </c>
       <c r="U19" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-2.3147014975189745E-2</v>
       </c>
-      <c r="V19" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="V19" s="2">
+        <f t="shared" si="7"/>
+        <v>-2.2423212536186787E-2</v>
       </c>
       <c r="W19" s="2" t="e">
-        <f t="shared" ref="W19:AA19" si="4">W17/W18</f>
+        <f t="shared" ref="W19:AA19" si="8">W17/W18</f>
         <v>#DIV/0!</v>
       </c>
       <c r="X19" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-8.6278777640612425E-2</v>
       </c>
-      <c r="Y19" s="35">
-        <f t="shared" si="4"/>
+      <c r="Y19" s="156">
+        <f t="shared" si="8"/>
         <v>-4.1682976630026836E-3</v>
       </c>
-      <c r="Z19" s="2" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="Z19" s="35">
+        <f t="shared" si="8"/>
+        <v>-1.3164317530050689E-2</v>
       </c>
       <c r="AA19" s="2" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="20" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="2:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
         <v>61</v>
       </c>
@@ -14743,11 +14800,11 @@
       <c r="V20" s="49"/>
       <c r="W20" s="49"/>
       <c r="X20" s="49"/>
-      <c r="Y20" s="129"/>
-      <c r="Z20" s="49"/>
+      <c r="Y20" s="157"/>
+      <c r="Z20" s="129"/>
       <c r="AA20" s="49"/>
     </row>
-    <row r="21" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>28</v>
       </c>
@@ -14774,71 +14831,71 @@
       <c r="H21" s="46"/>
       <c r="I21" s="46"/>
       <c r="L21" s="3" t="e">
-        <f>1-L5/L3</f>
+        <f t="shared" ref="L21:AA21" si="9">1-L5/L3</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M21" s="3" t="e">
-        <f>1-M5/M3</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N21" s="3" t="e">
-        <f>1-N5/N3</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O21" s="3" t="e">
-        <f>1-O5/O3</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P21" s="3" t="e">
-        <f>1-P5/P3</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q21" s="3" t="e">
-        <f>1-Q5/Q3</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R21" s="3" t="e">
-        <f>1-R5/R3</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S21" s="3" t="e">
-        <f>1-S5/S3</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T21" s="3">
-        <f>1-T5/T3</f>
+        <f t="shared" si="9"/>
         <v>0.10021790532708974</v>
       </c>
       <c r="U21" s="3">
-        <f>1-U5/U3</f>
+        <f t="shared" si="9"/>
         <v>9.5822631817495063E-2</v>
       </c>
-      <c r="V21" s="3" t="e">
-        <f>1-V5/V3</f>
-        <v>#DIV/0!</v>
+      <c r="V21" s="3">
+        <f t="shared" si="9"/>
+        <v>8.7472046216921284E-2</v>
       </c>
       <c r="W21" s="3" t="e">
-        <f>1-W5/W3</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X21" s="3">
-        <f>1-X5/X3</f>
+        <f t="shared" si="9"/>
         <v>0.10341082877111529</v>
       </c>
-      <c r="Y21" s="6">
-        <f>1-Y5/Y3</f>
+      <c r="Y21" s="39">
+        <f t="shared" si="9"/>
         <v>9.3515426465323404E-2</v>
       </c>
-      <c r="Z21" s="3" t="e">
-        <f>1-Z5/Z3</f>
-        <v>#DIV/0!</v>
+      <c r="Z21" s="6">
+        <f t="shared" si="9"/>
+        <v>8.6255127681965638E-2</v>
       </c>
       <c r="AA21" s="3" t="e">
-        <f>1-AA5/AA3</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="22" spans="2:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>29</v>
       </c>
@@ -14862,80 +14919,80 @@
         <f>G17/G3</f>
         <v>-3.9467001761569899E-2</v>
       </c>
-      <c r="H22" s="47" t="e">
+      <c r="H22" s="47">
         <f>H17/H4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I22" s="47" t="e">
+        <v>0</v>
+      </c>
+      <c r="I22" s="47">
         <f>I17/I4</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="L22" s="4" t="e">
-        <f>L17/L3</f>
+        <f t="shared" ref="L22:AA22" si="10">L17/L3</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M22" s="4" t="e">
-        <f>M17/M3</f>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N22" s="4" t="e">
-        <f>N17/N3</f>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O22" s="4" t="e">
-        <f>O17/O3</f>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P22" s="4" t="e">
-        <f>P17/P3</f>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q22" s="4" t="e">
-        <f>Q17/Q3</f>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R22" s="4" t="e">
-        <f>R17/R3</f>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S22" s="4" t="e">
-        <f>S17/S3</f>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T22" s="4">
-        <f>T17/T3</f>
+        <f t="shared" si="10"/>
         <v>-6.6345217673513007E-2</v>
       </c>
       <c r="U22" s="4">
-        <f>U17/U3</f>
+        <f t="shared" si="10"/>
         <v>-2.2451600371225743E-2</v>
       </c>
-      <c r="V22" s="4" t="e">
-        <f>V17/V3</f>
-        <v>#DIV/0!</v>
+      <c r="V22" s="4">
+        <f t="shared" si="10"/>
+        <v>-1.8873462541930865E-2</v>
       </c>
       <c r="W22" s="4" t="e">
-        <f>W17/W3</f>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X22" s="4">
-        <f>X17/X3</f>
+        <f t="shared" si="10"/>
         <v>-7.9380102917660844E-2</v>
       </c>
-      <c r="Y22" s="7">
-        <f>Y17/Y3</f>
+      <c r="Y22" s="158">
+        <f t="shared" si="10"/>
         <v>-2.3123558445674467E-3</v>
       </c>
-      <c r="Z22" s="4" t="e">
-        <f>Z17/Z3</f>
-        <v>#DIV/0!</v>
+      <c r="Z22" s="7">
+        <f t="shared" si="10"/>
+        <v>-6.950559481110825E-3</v>
       </c>
       <c r="AA22" s="4" t="e">
-        <f>AA17/AA3</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="23" spans="2:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>30</v>
       </c>
@@ -14952,345 +15009,349 @@
         <f>F3/E3-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G23" s="152">
+      <c r="G23" s="132">
         <f>G3/F3-1</f>
         <v>0.80523161391045606</v>
       </c>
       <c r="H23" s="48">
         <f>H4/G3-1</f>
-        <v>-1</v>
-      </c>
-      <c r="I23" s="48" t="e">
+        <v>0.75576573151584969</v>
+      </c>
+      <c r="I23" s="48">
         <f>I4/H4-1</f>
-        <v>#DIV/0!</v>
+        <v>0.30578512396694224</v>
       </c>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
       <c r="P23" s="4" t="e">
-        <f>P3/L3-1</f>
+        <f t="shared" ref="P23:AB23" si="11">P3/L3-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q23" s="4" t="e">
-        <f>Q3/M3-1</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R23" s="4" t="e">
-        <f>R3/N3-1</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S23" s="4" t="e">
-        <f>S3/O3-1</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T23" s="4" t="e">
-        <f>T3/P3-1</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U23" s="4" t="e">
-        <f>U3/Q3-1</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V23" s="4" t="e">
-        <f>V3/R3-1</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W23" s="4" t="e">
-        <f>W3/S3-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X23" s="150">
-        <f>X3/T3-1</f>
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X23" s="130">
+        <f t="shared" si="11"/>
         <v>0.86140293940377388</v>
       </c>
-      <c r="Y23" s="151">
-        <f>Y3/U3-1</f>
+      <c r="Y23" s="159">
+        <f t="shared" si="11"/>
         <v>0.8387434441974404</v>
       </c>
-      <c r="Z23" s="4" t="e">
+      <c r="Z23" s="131">
         <f>Z3/V3-1</f>
-        <v>#DIV/0!</v>
+        <v>0.7354081252329483</v>
       </c>
       <c r="AA23" s="4" t="e">
         <f>AA3/W3-1</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="24" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AB23" s="4">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="149" t="e">
-        <f t="shared" ref="C24:G24" si="5">C7/C3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D24" s="149" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E24" s="149" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F24" s="149">
-        <f t="shared" si="5"/>
+      <c r="C24" s="4" t="e">
+        <f t="shared" ref="C24:G24" si="12">C7/C3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D24" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E24" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F24" s="4">
+        <f t="shared" si="12"/>
         <v>5.9393958444660992E-2</v>
       </c>
       <c r="G24" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>5.6026339388064852E-2</v>
       </c>
       <c r="H24" s="125"/>
       <c r="I24" s="125"/>
-      <c r="L24" s="149" t="e">
-        <f t="shared" ref="L24:X24" si="6">L7/L3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M24" s="149" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N24" s="149" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O24" s="149" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P24" s="149" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q24" s="149" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R24" s="149" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S24" s="149" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T24" s="149">
-        <f t="shared" si="6"/>
+      <c r="L24" s="4" t="e">
+        <f t="shared" ref="L24:X24" si="13">L7/L3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M24" s="4" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N24" s="4" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O24" s="4" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P24" s="4" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q24" s="4" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R24" s="4" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S24" s="4" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T24" s="4">
+        <f t="shared" si="13"/>
         <v>7.1250405674811071E-2</v>
       </c>
-      <c r="U24" s="149">
-        <f t="shared" si="6"/>
+      <c r="U24" s="4">
+        <f t="shared" si="13"/>
         <v>5.5392484838020423E-2</v>
       </c>
-      <c r="V24" s="149" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W24" s="149" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X24" s="149">
-        <f t="shared" si="6"/>
+      <c r="V24" s="4">
+        <f t="shared" si="13"/>
+        <v>5.3936824450242268E-2</v>
+      </c>
+      <c r="W24" s="4" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X24" s="4">
+        <f t="shared" si="13"/>
         <v>6.2911284577793491E-2</v>
       </c>
-      <c r="Y24" s="7">
+      <c r="Y24" s="158">
         <f>Y7/Y3</f>
         <v>4.6625662454735921E-2</v>
       </c>
-      <c r="Z24" s="4" t="e">
+      <c r="Z24" s="7">
         <f>Z6/Z3</f>
-        <v>#DIV/0!</v>
+        <v>4.3762483623633511E-2</v>
       </c>
       <c r="AA24" s="4" t="e">
         <f>AA6/AA3</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>133</v>
       </c>
-      <c r="C25" s="149" t="e">
-        <f t="shared" ref="C25:G25" si="7">C8/C3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D25" s="149" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E25" s="149" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F25" s="149">
-        <f t="shared" si="7"/>
+      <c r="C25" s="4" t="e">
+        <f t="shared" ref="C25:G25" si="14">C8/C3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D25" s="4" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E25" s="4" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F25" s="4">
+        <f t="shared" si="14"/>
         <v>1.2748981024528757E-2</v>
       </c>
       <c r="G25" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>1.0678247948946396E-2</v>
       </c>
       <c r="H25" s="125"/>
       <c r="I25" s="125"/>
-      <c r="L25" s="149" t="e">
-        <f t="shared" ref="L25:X25" si="8">L8/L3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M25" s="149" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N25" s="149" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O25" s="149" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P25" s="149" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q25" s="149" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R25" s="149" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S25" s="149" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T25" s="149">
-        <f t="shared" si="8"/>
+      <c r="L25" s="4" t="e">
+        <f t="shared" ref="L25:X25" si="15">L8/L3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M25" s="4" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N25" s="4" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O25" s="4" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P25" s="4" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q25" s="4" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R25" s="4" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S25" s="4" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T25" s="4">
+        <f t="shared" si="15"/>
         <v>1.4131392275951598E-2</v>
       </c>
-      <c r="U25" s="149">
-        <f t="shared" si="8"/>
+      <c r="U25" s="4">
+        <f t="shared" si="15"/>
         <v>8.5198454665141483E-3</v>
       </c>
-      <c r="V25" s="149" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W25" s="149" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X25" s="149">
-        <f t="shared" si="8"/>
+      <c r="V25" s="4">
+        <f t="shared" si="15"/>
+        <v>8.9964591874767061E-3</v>
+      </c>
+      <c r="W25" s="4" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X25" s="4">
+        <f t="shared" si="15"/>
         <v>1.2264437614263015E-2</v>
       </c>
-      <c r="Y25" s="7">
+      <c r="Y25" s="158">
         <f>Y8/Y3</f>
         <v>7.6530761962333247E-3</v>
       </c>
-      <c r="Z25" s="4" t="e">
+      <c r="Z25" s="7">
         <f>Z7/Z3</f>
-        <v>#DIV/0!</v>
+        <v>4.0970447370116618E-2</v>
       </c>
       <c r="AA25" s="4" t="e">
         <f>AA7/AA3</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>134</v>
       </c>
-      <c r="C26" s="149" t="e">
-        <f t="shared" ref="C26:G26" si="9">C6/C3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D26" s="149" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E26" s="149" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F26" s="149">
-        <f t="shared" si="9"/>
+      <c r="C26" s="4" t="e">
+        <f t="shared" ref="C26:G26" si="16">C6/C3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D26" s="4" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E26" s="4" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F26" s="4">
+        <f t="shared" si="16"/>
         <v>6.3273399763199539E-2</v>
       </c>
       <c r="G26" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>6.2268739534330292E-2</v>
       </c>
       <c r="H26" s="125"/>
       <c r="I26" s="125"/>
-      <c r="L26" s="149" t="e">
-        <f t="shared" ref="L26:X26" si="10">L6/L3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M26" s="149" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N26" s="149" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O26" s="149" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P26" s="149" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q26" s="149" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R26" s="149" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S26" s="149" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T26" s="149">
-        <f t="shared" si="10"/>
+      <c r="L26" s="4" t="e">
+        <f t="shared" ref="L26:X26" si="17">L6/L3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M26" s="4" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N26" s="4" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O26" s="4" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P26" s="4" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q26" s="4" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R26" s="4" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S26" s="4" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T26" s="4">
+        <f t="shared" si="17"/>
         <v>8.0096434697946126E-2</v>
       </c>
-      <c r="U26" s="149">
-        <f t="shared" si="10"/>
+      <c r="U26" s="4">
+        <f t="shared" si="17"/>
         <v>5.2090302807933871E-2</v>
       </c>
-      <c r="V26" s="149" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W26" s="149" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X26" s="149">
-        <f t="shared" si="10"/>
+      <c r="V26" s="4">
+        <f t="shared" si="17"/>
+        <v>4.3020872158032054E-2</v>
+      </c>
+      <c r="W26" s="4" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X26" s="4">
+        <f t="shared" si="17"/>
         <v>6.0455408158690466E-2</v>
       </c>
-      <c r="Y26" s="7">
+      <c r="Y26" s="158">
         <f>Y6/Y3</f>
         <v>4.1126481169559068E-2</v>
       </c>
-      <c r="Z26" s="4" t="e">
+      <c r="Z26" s="7">
         <f>Z9/Z3</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AA26" s="4" t="e">
         <f>AA9/AA3</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>139</v>
       </c>
@@ -15324,55 +15385,55 @@
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
       <c r="P27" s="4" t="e">
-        <f>P17/L17-1</f>
+        <f t="shared" ref="P27:AA27" si="18">P17/L17-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q27" s="4" t="e">
-        <f>Q17/M17-1</f>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R27" s="4" t="e">
-        <f>R17/N17-1</f>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S27" s="4" t="e">
-        <f>S17/O17-1</f>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T27" s="4" t="e">
-        <f>T17/P17-1</f>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U27" s="4" t="e">
-        <f>U17/Q17-1</f>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V27" s="4" t="e">
-        <f>V17/R17-1</f>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W27" s="4" t="e">
-        <f>W17/S17-1</f>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X27" s="4">
-        <f>X17/T17-1</f>
+        <f t="shared" si="18"/>
         <v>1.2271139063591847</v>
       </c>
-      <c r="Y27" s="7">
-        <f>Y17/U17-1</f>
+      <c r="Y27" s="158">
+        <f t="shared" si="18"/>
         <v>-0.81062244652727622</v>
       </c>
-      <c r="Z27" s="4" t="e">
-        <f>Z17/V17-1</f>
-        <v>#DIV/0!</v>
+      <c r="Z27" s="7">
+        <f t="shared" si="18"/>
+        <v>-0.36089854356949325</v>
       </c>
       <c r="AA27" s="4" t="e">
-        <f>AA17/W17-1</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="28" spans="2:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>78</v>
       </c>
@@ -15396,13 +15457,13 @@
         <f>G11/G3</f>
         <v>-8.5176403669405272E-4</v>
       </c>
-      <c r="H28" s="51" t="e">
+      <c r="H28" s="51">
         <f>H11/H4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I28" s="51" t="e">
+        <v>0</v>
+      </c>
+      <c r="I28" s="51">
         <f>I11/I4</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
@@ -15417,40 +15478,40 @@
       <c r="V28" s="4"/>
       <c r="W28" s="4"/>
       <c r="X28" s="4"/>
-      <c r="Y28" s="7"/>
-      <c r="Z28" s="4"/>
+      <c r="Y28" s="158"/>
+      <c r="Z28" s="7"/>
       <c r="AA28" s="4"/>
     </row>
-    <row r="29" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>79</v>
       </c>
       <c r="C29" s="53" t="e">
-        <f>-C11/C10</f>
+        <f t="shared" ref="C29:I29" si="19">-C11/C10</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D29" s="53" t="e">
-        <f>-D11/D10</f>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E29" s="53" t="e">
-        <f>-E11/E10</f>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F29" s="53">
-        <f>-F11/F10</f>
+        <f t="shared" si="19"/>
         <v>3.6918869644484889E-2</v>
       </c>
       <c r="G29" s="52">
-        <f>-G11/G10</f>
+        <f t="shared" si="19"/>
         <v>-2.2568242983467903E-2</v>
       </c>
       <c r="H29" s="51" t="e">
-        <f>-H11/H10</f>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I29" s="51" t="e">
-        <f>-I11/I10</f>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L29" s="4"/>
@@ -15466,11 +15527,11 @@
       <c r="V29" s="4"/>
       <c r="W29" s="4"/>
       <c r="X29" s="4"/>
-      <c r="Y29" s="7"/>
-      <c r="Z29" s="4"/>
+      <c r="Y29" s="158"/>
+      <c r="Z29" s="7"/>
       <c r="AA29" s="4"/>
     </row>
-    <row r="32" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>37</v>
       </c>
@@ -15479,91 +15540,91 @@
         <v>0</v>
       </c>
       <c r="D32" s="11">
-        <f t="shared" ref="D32:I32" si="11">D33+D34+D36</f>
+        <f t="shared" ref="D32:I32" si="20">D33+D34+D36</f>
         <v>0</v>
       </c>
       <c r="E32" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="F32" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>18.326999999999998</v>
       </c>
       <c r="G32" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>41.877000000000002</v>
       </c>
       <c r="H32" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I32" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L32" s="11">
-        <f t="shared" ref="L32:AA32" si="12">L33+L34+L36</f>
+        <f t="shared" ref="L32:AA32" si="21">L33+L34+L36</f>
         <v>0</v>
       </c>
       <c r="M32" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N32" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="O32" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="P32" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="Q32" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="R32" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="S32" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>18.326999999999998</v>
       </c>
       <c r="T32" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="U32" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="V32" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="W32" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>41.877000000000002</v>
       </c>
       <c r="X32" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>58.924999999999997</v>
       </c>
-      <c r="Y32" s="14">
-        <f t="shared" si="12"/>
+      <c r="Y32" s="153">
+        <f t="shared" si="21"/>
         <v>66.715999999999994</v>
       </c>
-      <c r="Z32" s="11">
-        <f t="shared" si="12"/>
-        <v>0</v>
+      <c r="Z32" s="14">
+        <f>Z33+Z34+Z36</f>
+        <v>59.494</v>
       </c>
       <c r="AA32" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -15601,10 +15662,12 @@
       <c r="X33" s="10">
         <v>20.071999999999999</v>
       </c>
-      <c r="Y33" s="15">
+      <c r="Y33" s="155">
         <v>23.315999999999999</v>
       </c>
-      <c r="Z33" s="10"/>
+      <c r="Z33" s="15">
+        <v>21.58</v>
+      </c>
       <c r="AA33" s="10"/>
     </row>
     <row r="34" spans="2:27" x14ac:dyDescent="0.25">
@@ -15615,11 +15678,11 @@
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
       <c r="F34" s="10">
-        <f t="shared" ref="F34:F39" si="13">S34</f>
+        <f t="shared" ref="F34:F39" si="22">S34</f>
         <v>7.4809999999999999</v>
       </c>
       <c r="G34" s="15">
-        <f t="shared" ref="G34:G39" si="14">W34</f>
+        <f t="shared" ref="G34:G39" si="23">W34</f>
         <v>12.948</v>
       </c>
       <c r="L34" s="10"/>
@@ -15641,10 +15704,12 @@
       <c r="X34" s="10">
         <v>24.44</v>
       </c>
-      <c r="Y34" s="15">
+      <c r="Y34" s="155">
         <v>33.124000000000002</v>
       </c>
-      <c r="Z34" s="10"/>
+      <c r="Z34" s="15">
+        <v>27.515999999999998</v>
+      </c>
       <c r="AA34" s="10"/>
     </row>
     <row r="35" spans="2:27" x14ac:dyDescent="0.25">
@@ -15655,11 +15720,11 @@
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>7.8920000000000003</v>
       </c>
       <c r="G35" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L35" s="10"/>
@@ -15677,10 +15742,12 @@
       <c r="V35" s="10"/>
       <c r="W35" s="10"/>
       <c r="X35" s="10"/>
-      <c r="Y35" s="15">
+      <c r="Y35" s="155">
         <v>9.25</v>
       </c>
-      <c r="Z35" s="10"/>
+      <c r="Z35" s="15">
+        <v>9.25</v>
+      </c>
       <c r="AA35" s="10"/>
     </row>
     <row r="36" spans="2:27" x14ac:dyDescent="0.25">
@@ -15691,11 +15758,11 @@
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
       <c r="F36" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G36" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>14.222</v>
       </c>
       <c r="L36" s="10"/>
@@ -15715,10 +15782,12 @@
       <c r="X36" s="10">
         <v>14.413</v>
       </c>
-      <c r="Y36" s="15">
+      <c r="Y36" s="155">
         <v>10.276</v>
       </c>
-      <c r="Z36" s="10"/>
+      <c r="Z36" s="15">
+        <v>10.398</v>
+      </c>
       <c r="AA36" s="10"/>
     </row>
     <row r="37" spans="2:27" x14ac:dyDescent="0.25">
@@ -15729,11 +15798,11 @@
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
       <c r="F37" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>1.5469999999999999</v>
       </c>
       <c r="G37" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>6.4409999999999998</v>
       </c>
       <c r="L37" s="10"/>
@@ -15755,10 +15824,12 @@
       <c r="X37" s="10">
         <v>9.5350000000000001</v>
       </c>
-      <c r="Y37" s="15">
+      <c r="Y37" s="155">
         <v>18.631</v>
       </c>
-      <c r="Z37" s="10"/>
+      <c r="Z37" s="15">
+        <v>17.305</v>
+      </c>
       <c r="AA37" s="10"/>
     </row>
     <row r="38" spans="2:27" x14ac:dyDescent="0.25">
@@ -15769,11 +15840,11 @@
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>7.3999999999999996E-2</v>
       </c>
       <c r="G38" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>6.3E-2</v>
       </c>
       <c r="L38" s="10"/>
@@ -15795,10 +15866,12 @@
       <c r="X38" s="10">
         <v>0.09</v>
       </c>
-      <c r="Y38" s="15">
+      <c r="Y38" s="155">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="Z38" s="10"/>
+      <c r="Z38" s="15">
+        <v>0.43</v>
+      </c>
       <c r="AA38" s="10"/>
     </row>
     <row r="39" spans="2:27" x14ac:dyDescent="0.25">
@@ -15809,11 +15882,11 @@
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>0.52900000000000003</v>
       </c>
       <c r="G39" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>2.1320000000000001</v>
       </c>
       <c r="L39" s="10"/>
@@ -15835,10 +15908,12 @@
       <c r="X39" s="10">
         <v>1.222</v>
       </c>
-      <c r="Y39" s="15">
+      <c r="Y39" s="155">
         <v>1.5409999999999999</v>
       </c>
-      <c r="Z39" s="10"/>
+      <c r="Z39" s="15">
+        <v>2.391</v>
+      </c>
       <c r="AA39" s="10"/>
     </row>
     <row r="40" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -15846,11 +15921,11 @@
         <v>58</v>
       </c>
       <c r="C40" s="11">
-        <f t="shared" ref="C40:D40" si="15">SUM(C33:C39)</f>
+        <f t="shared" ref="C40:D40" si="24">SUM(C33:C39)</f>
         <v>0</v>
       </c>
       <c r="D40" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="E40" s="11">
@@ -15858,7 +15933,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="11">
-        <f t="shared" ref="F40:G40" si="16">SUM(F33:F39)</f>
+        <f t="shared" ref="F40" si="25">SUM(F33:F39)</f>
         <v>28.369</v>
       </c>
       <c r="G40" s="14">
@@ -15866,67 +15941,67 @@
         <v>50.513000000000005</v>
       </c>
       <c r="L40" s="11">
-        <f t="shared" ref="L40:V40" si="17">SUM(L33:L39)</f>
+        <f t="shared" ref="L40:V40" si="26">SUM(L33:L39)</f>
         <v>0</v>
       </c>
       <c r="M40" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="N40" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="O40" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="P40" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="Q40" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R40" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="S40" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>28.369</v>
       </c>
       <c r="T40" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="U40" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="V40" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="W40" s="11">
-        <f t="shared" ref="W40:AA40" si="18">SUM(W33:W39)</f>
+        <f t="shared" ref="W40:AA40" si="27">SUM(W33:W39)</f>
         <v>50.513000000000005</v>
       </c>
       <c r="X40" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>69.771999999999991</v>
       </c>
-      <c r="Y40" s="14">
-        <f t="shared" si="18"/>
+      <c r="Y40" s="153">
+        <f t="shared" si="27"/>
         <v>96.193999999999988</v>
       </c>
-      <c r="Z40" s="11">
-        <f t="shared" si="18"/>
-        <v>0</v>
+      <c r="Z40" s="14">
+        <f t="shared" si="27"/>
+        <v>88.870000000000019</v>
       </c>
       <c r="AA40" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
@@ -15938,11 +16013,11 @@
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10">
-        <f t="shared" ref="F41:F43" si="19">S41</f>
+        <f t="shared" ref="F41:F43" si="28">S41</f>
         <v>3.7080000000000002</v>
       </c>
       <c r="G41" s="15">
-        <f t="shared" ref="G41:G43" si="20">W41</f>
+        <f t="shared" ref="G41:G43" si="29">W41</f>
         <v>3.4420000000000002</v>
       </c>
       <c r="L41" s="10"/>
@@ -15964,10 +16039,12 @@
       <c r="X41" s="10">
         <v>3.2189999999999999</v>
       </c>
-      <c r="Y41" s="15">
+      <c r="Y41" s="155">
         <v>2.996</v>
       </c>
-      <c r="Z41" s="10"/>
+      <c r="Z41" s="15">
+        <v>2.7879999999999998</v>
+      </c>
       <c r="AA41" s="10"/>
     </row>
     <row r="42" spans="2:27" x14ac:dyDescent="0.25">
@@ -15978,11 +16055,11 @@
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>10.262</v>
       </c>
       <c r="G42" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>8.9930000000000003</v>
       </c>
       <c r="L42" s="10"/>
@@ -16004,10 +16081,12 @@
       <c r="X42" s="10">
         <v>8.9930000000000003</v>
       </c>
-      <c r="Y42" s="15">
+      <c r="Y42" s="155">
         <v>8.9930000000000003</v>
       </c>
-      <c r="Z42" s="10"/>
+      <c r="Z42" s="15">
+        <v>8.9930000000000003</v>
+      </c>
       <c r="AA42" s="10"/>
     </row>
     <row r="43" spans="2:27" x14ac:dyDescent="0.25">
@@ -16018,11 +16097,11 @@
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>1.423</v>
       </c>
       <c r="G43" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>1.6</v>
       </c>
       <c r="L43" s="10"/>
@@ -16045,10 +16124,12 @@
       <c r="X43" s="10">
         <v>1.593</v>
       </c>
-      <c r="Y43" s="15">
+      <c r="Y43" s="155">
         <v>1.9770000000000001</v>
       </c>
-      <c r="Z43" s="10"/>
+      <c r="Z43" s="15">
+        <v>2.2090000000000001</v>
+      </c>
       <c r="AA43" s="10"/>
     </row>
     <row r="44" spans="2:27" x14ac:dyDescent="0.25">
@@ -16076,67 +16157,67 @@
         <v>64.548000000000002</v>
       </c>
       <c r="L44" s="11">
-        <f>SUM(L40:L43)</f>
+        <f t="shared" ref="L44:AA44" si="30">SUM(L40:L43)</f>
         <v>0</v>
       </c>
       <c r="M44" s="11">
-        <f>SUM(M40:M43)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="N44" s="11">
-        <f>SUM(N40:N43)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="O44" s="11">
-        <f>SUM(O40:O43)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="P44" s="11">
-        <f>SUM(P40:P43)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="Q44" s="11">
-        <f>SUM(Q40:Q43)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="R44" s="11">
-        <f>SUM(R40:R43)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="S44" s="11">
-        <f>SUM(S40:S43)</f>
+        <f t="shared" si="30"/>
         <v>43.762</v>
       </c>
       <c r="T44" s="11">
-        <f>SUM(T40:T43)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="U44" s="11">
-        <f>SUM(U40:U43)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="V44" s="11">
-        <f>SUM(V40:V43)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="W44" s="11">
-        <f>SUM(W40:W43)</f>
+        <f t="shared" si="30"/>
         <v>64.548000000000002</v>
       </c>
       <c r="X44" s="11">
-        <f>SUM(X40:X43)</f>
+        <f t="shared" si="30"/>
         <v>83.576999999999984</v>
       </c>
-      <c r="Y44" s="14">
-        <f>SUM(Y40:Y43)</f>
+      <c r="Y44" s="153">
+        <f t="shared" si="30"/>
         <v>110.15999999999998</v>
       </c>
-      <c r="Z44" s="11">
-        <f>SUM(Z40:Z43)</f>
-        <v>0</v>
+      <c r="Z44" s="14">
+        <f t="shared" si="30"/>
+        <v>102.86000000000001</v>
       </c>
       <c r="AA44" s="11">
-        <f>SUM(AA40:AA43)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
@@ -16148,11 +16229,11 @@
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10">
-        <f t="shared" ref="F45:F49" si="21">S45</f>
+        <f t="shared" ref="F45:F49" si="31">S45</f>
         <v>0.47399999999999998</v>
       </c>
       <c r="G45" s="15">
-        <f t="shared" ref="G45:G49" si="22">W45</f>
+        <f t="shared" ref="G45:G49" si="32">W45</f>
         <v>0.57099999999999995</v>
       </c>
       <c r="L45" s="10"/>
@@ -16174,10 +16255,12 @@
       <c r="X45" s="10">
         <v>1.093</v>
       </c>
-      <c r="Y45" s="15">
+      <c r="Y45" s="155">
         <v>1.196</v>
       </c>
-      <c r="Z45" s="10"/>
+      <c r="Z45" s="15">
+        <v>1.133</v>
+      </c>
       <c r="AA45" s="10"/>
     </row>
     <row r="46" spans="2:27" x14ac:dyDescent="0.25">
@@ -16188,11 +16271,11 @@
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>11.866</v>
       </c>
       <c r="G46" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>13.374000000000001</v>
       </c>
       <c r="L46" s="10"/>
@@ -16214,10 +16297,12 @@
       <c r="X46" s="10">
         <v>21.213999999999999</v>
       </c>
-      <c r="Y46" s="15">
+      <c r="Y46" s="155">
         <v>33.628999999999998</v>
       </c>
-      <c r="Z46" s="10"/>
+      <c r="Z46" s="15">
+        <v>30.991</v>
+      </c>
       <c r="AA46" s="10"/>
     </row>
     <row r="47" spans="2:27" x14ac:dyDescent="0.25">
@@ -16228,11 +16313,11 @@
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>7.4809999999999999</v>
       </c>
       <c r="G47" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>12.948</v>
       </c>
       <c r="L47" s="10"/>
@@ -16254,10 +16339,12 @@
       <c r="X47" s="10">
         <v>24.44</v>
       </c>
-      <c r="Y47" s="15">
+      <c r="Y47" s="155">
         <v>33.124000000000002</v>
       </c>
-      <c r="Z47" s="10"/>
+      <c r="Z47" s="15">
+        <v>27.515999999999998</v>
+      </c>
       <c r="AA47" s="10"/>
     </row>
     <row r="48" spans="2:27" x14ac:dyDescent="0.25">
@@ -16268,11 +16355,11 @@
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>1.1879999999999999</v>
       </c>
       <c r="G48" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>0.30199999999999999</v>
       </c>
       <c r="L48" s="10"/>
@@ -16294,10 +16381,12 @@
       <c r="X48" s="10">
         <v>10.666</v>
       </c>
-      <c r="Y48" s="15">
+      <c r="Y48" s="155">
         <v>11.028</v>
       </c>
-      <c r="Z48" s="10"/>
+      <c r="Z48" s="15">
+        <v>12.843</v>
+      </c>
       <c r="AA48" s="10"/>
     </row>
     <row r="49" spans="2:27" x14ac:dyDescent="0.25">
@@ -16308,11 +16397,11 @@
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
       <c r="F49" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>9.6000000000000002E-2</v>
       </c>
       <c r="G49" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="L49" s="10"/>
@@ -16332,10 +16421,10 @@
       <c r="X49" s="10">
         <v>0.54</v>
       </c>
-      <c r="Y49" s="15">
+      <c r="Y49" s="155">
         <v>0.35599999999999998</v>
       </c>
-      <c r="Z49" s="10"/>
+      <c r="Z49" s="15"/>
       <c r="AA49" s="10"/>
     </row>
     <row r="50" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -16363,67 +16452,67 @@
         <v>27.195</v>
       </c>
       <c r="L50" s="11">
-        <f t="shared" ref="L50:V50" si="23">SUM(L45:L49)</f>
+        <f t="shared" ref="L50:V50" si="33">SUM(L45:L49)</f>
         <v>0</v>
       </c>
       <c r="M50" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="N50" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="O50" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="P50" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="Q50" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="R50" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="S50" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>21.104999999999997</v>
       </c>
       <c r="T50" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="U50" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="V50" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="W50" s="11">
-        <f t="shared" ref="W50:AA50" si="24">SUM(W45:W49)</f>
+        <f t="shared" ref="W50:AA50" si="34">SUM(W45:W49)</f>
         <v>27.195</v>
       </c>
       <c r="X50" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>57.952999999999996</v>
       </c>
-      <c r="Y50" s="14">
-        <f t="shared" si="24"/>
+      <c r="Y50" s="153">
+        <f t="shared" si="34"/>
         <v>79.332999999999998</v>
       </c>
-      <c r="Z50" s="11">
-        <f t="shared" si="24"/>
-        <v>0</v>
+      <c r="Z50" s="14">
+        <f t="shared" si="34"/>
+        <v>72.483000000000004</v>
       </c>
       <c r="AA50" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
     </row>
@@ -16461,10 +16550,10 @@
       <c r="X51" s="10">
         <v>0</v>
       </c>
-      <c r="Y51" s="15">
+      <c r="Y51" s="155">
         <v>0</v>
       </c>
-      <c r="Z51" s="10"/>
+      <c r="Z51" s="15"/>
       <c r="AA51" s="10"/>
     </row>
     <row r="52" spans="2:27" x14ac:dyDescent="0.25">
@@ -16492,67 +16581,67 @@
         <v>27.463999999999999</v>
       </c>
       <c r="L52" s="11">
-        <f>SUM(L50:L51)</f>
+        <f t="shared" ref="L52:AA52" si="35">SUM(L50:L51)</f>
         <v>0</v>
       </c>
       <c r="M52" s="11">
-        <f>SUM(M50:M51)</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N52" s="11">
-        <f>SUM(N50:N51)</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="O52" s="11">
-        <f>SUM(O50:O51)</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="P52" s="11">
-        <f>SUM(P50:P51)</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="Q52" s="11">
-        <f>SUM(Q50:Q51)</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="R52" s="11">
-        <f>SUM(R50:R51)</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="S52" s="11">
-        <f>SUM(S50:S51)</f>
+        <f t="shared" si="35"/>
         <v>21.346999999999998</v>
       </c>
       <c r="T52" s="11">
-        <f>SUM(T50:T51)</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="U52" s="11">
-        <f>SUM(U50:U51)</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="V52" s="11">
-        <f>SUM(V50:V51)</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="W52" s="11">
-        <f>SUM(W50:W51)</f>
+        <f t="shared" si="35"/>
         <v>27.463999999999999</v>
       </c>
       <c r="X52" s="11">
-        <f>SUM(X50:X51)</f>
+        <f t="shared" si="35"/>
         <v>57.952999999999996</v>
       </c>
-      <c r="Y52" s="14">
-        <f>SUM(Y50:Y51)</f>
+      <c r="Y52" s="153">
+        <f t="shared" si="35"/>
         <v>79.332999999999998</v>
       </c>
-      <c r="Z52" s="11">
-        <f>SUM(Z50:Z51)</f>
-        <v>0</v>
+      <c r="Z52" s="14">
+        <f t="shared" si="35"/>
+        <v>72.483000000000004</v>
       </c>
       <c r="AA52" s="11">
-        <f>SUM(AA50:AA51)</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
     </row>
@@ -16581,67 +16670,67 @@
         <v>37.084000000000003</v>
       </c>
       <c r="L53" s="10">
-        <f>L44-L52</f>
+        <f t="shared" ref="L53:AA53" si="36">L44-L52</f>
         <v>0</v>
       </c>
       <c r="M53" s="10">
-        <f>M44-M52</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="N53" s="10">
-        <f>N44-N52</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="O53" s="10">
-        <f>O44-O52</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="P53" s="10">
-        <f>P44-P52</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="Q53" s="10">
-        <f>Q44-Q52</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="R53" s="10">
-        <f>R44-R52</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="S53" s="10">
-        <f>S44-S52</f>
+        <f t="shared" si="36"/>
         <v>22.415000000000003</v>
       </c>
       <c r="T53" s="10">
-        <f>T44-T52</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="U53" s="10">
-        <f>U44-U52</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="V53" s="10">
-        <f>V44-V52</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="W53" s="10">
-        <f>W44-W52</f>
+        <f t="shared" si="36"/>
         <v>37.084000000000003</v>
       </c>
       <c r="X53" s="10">
-        <f>X44-X52</f>
+        <f t="shared" si="36"/>
         <v>25.623999999999988</v>
       </c>
-      <c r="Y53" s="15">
-        <f>Y44-Y52</f>
+      <c r="Y53" s="155">
+        <f t="shared" si="36"/>
         <v>30.826999999999984</v>
       </c>
-      <c r="Z53" s="10">
-        <f>Z44-Z52</f>
-        <v>0</v>
+      <c r="Z53" s="15">
+        <f t="shared" si="36"/>
+        <v>30.37700000000001</v>
       </c>
       <c r="AA53" s="10">
-        <f>AA44-AA52</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
     </row>
@@ -16654,15 +16743,18 @@
       <c r="E55" s="54"/>
       <c r="F55" s="54"/>
       <c r="G55" s="55"/>
-      <c r="Y55" s="16"/>
-    </row>
-    <row r="73" spans="7:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y55" s="160"/>
+      <c r="Z55" s="16"/>
+    </row>
+    <row r="73" spans="7:26" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G73" s="41"/>
-      <c r="Y73" s="41"/>
-    </row>
-    <row r="74" spans="7:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y73" s="161"/>
+      <c r="Z73" s="41"/>
+    </row>
+    <row r="74" spans="7:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G74" s="16"/>
-      <c r="Y74" s="16"/>
+      <c r="Y74" s="160"/>
+      <c r="Z74" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -25083,14 +25175,14 @@
       <c r="D1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="H1" s="139" t="s">
+      <c r="H1" s="142" t="s">
         <v>94</v>
       </c>
-      <c r="I1" s="140"/>
-      <c r="J1" s="140"/>
-      <c r="K1" s="140"/>
-      <c r="L1" s="140"/>
-      <c r="M1" s="141"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
+      <c r="K1" s="143"/>
+      <c r="L1" s="143"/>
+      <c r="M1" s="144"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D2" t="e">
@@ -25497,10 +25589,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H17" s="142" t="s">
+      <c r="H17" s="145" t="s">
         <v>132</v>
       </c>
-      <c r="I17" s="143"/>
+      <c r="I17" s="146"/>
       <c r="M17" s="88"/>
     </row>
     <row r="18" spans="4:13" x14ac:dyDescent="0.25">
@@ -25508,8 +25600,8 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H18" s="144"/>
-      <c r="I18" s="145"/>
+      <c r="H18" s="147"/>
+      <c r="I18" s="148"/>
       <c r="M18" s="88"/>
     </row>
     <row r="19" spans="4:13" x14ac:dyDescent="0.25">
@@ -25932,14 +26024,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H43" s="146" t="s">
+      <c r="H43" s="149" t="s">
         <v>126</v>
       </c>
-      <c r="I43" s="147"/>
-      <c r="J43" s="147"/>
-      <c r="K43" s="147"/>
-      <c r="L43" s="147"/>
-      <c r="M43" s="148"/>
+      <c r="I43" s="150"/>
+      <c r="J43" s="150"/>
+      <c r="K43" s="150"/>
+      <c r="L43" s="150"/>
+      <c r="M43" s="151"/>
     </row>
     <row r="44" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D44" t="e">
